--- a/documentacion/elaborada/1-minutaDeReunion/Asistencia.xlsx
+++ b/documentacion/elaborada/1-minutaDeReunion/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>proyectos 2025</t>
   </si>
@@ -115,16 +115,62 @@
   </si>
   <si>
     <t>5A</t>
+  </si>
+  <si>
+    <t>Alonzi</t>
+  </si>
+  <si>
+    <t>Bastian</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Pastor</t>
+  </si>
+  <si>
+    <t>Rubio</t>
+  </si>
+  <si>
+    <t>C.E.D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franco </t>
+  </si>
+  <si>
+    <t>Villca</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>11-58362157</t>
+  </si>
+  <si>
+    <t>11-33151216</t>
+  </si>
+  <si>
+    <t>11-30749134</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,9 +196,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,24 +480,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -461,172 +509,331 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>45827</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3" s="1">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:F11">
-    <sortCondition ref="C4:C11"/>
+  <sortState ref="B4:F15">
+    <sortCondition ref="C4:C15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentacion/elaborada/1-minutaDeReunion/Asistencia.xlsx
+++ b/documentacion/elaborada/1-minutaDeReunion/Asistencia.xlsx
@@ -483,7 +483,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
